--- a/自定义字帖/结构分类.xlsx
+++ b/自定义字帖/结构分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="已完" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8087" uniqueCount="2304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8240" uniqueCount="2307">
   <si>
     <t>一</t>
   </si>
@@ -7076,6 +7076,18 @@
   </si>
   <si>
     <t>横支掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7133,7 +7145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7142,6 +7154,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -30713,7 +30726,7 @@
   <dimension ref="A1:D1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -40917,10 +40930,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:J585"/>
   <sheetViews>
-    <sheetView topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="B572" sqref="B572"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44789,89 +44802,90 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="561" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="561" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B561" s="2" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="562" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="562" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B562" s="2" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="563" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="563" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B563" s="2" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="564" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="564" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B564" s="2" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="565" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="565" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B565" s="2" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="566" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="566" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B566" s="2" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="567" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="567" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B567" s="2" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="568" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="568" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B568" s="2" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="569" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="569" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B569" s="2" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="570" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="570" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B570" s="2" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="571" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="571" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B571" s="2" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="572" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="572" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B572" s="2" t="s">
         <v>2077</v>
       </c>
     </row>
-    <row r="573" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="573" spans="2:10" ht="33" x14ac:dyDescent="0.45">
       <c r="B573" s="5" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="574" spans="2:2" ht="33" x14ac:dyDescent="0.45">
-      <c r="B574" s="5" t="s">
+    <row r="574" spans="2:10" ht="33" x14ac:dyDescent="0.45">
+      <c r="B574" s="6" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="575" spans="2:2" ht="33" x14ac:dyDescent="0.45">
-      <c r="B575" s="5" t="s">
+    <row r="575" spans="2:10" ht="33" x14ac:dyDescent="0.45">
+      <c r="B575" s="6" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="576" spans="2:2" ht="33" x14ac:dyDescent="0.45">
-      <c r="B576" s="5" t="s">
-        <v>1299</v>
-      </c>
+    <row r="576" spans="2:10" ht="33" x14ac:dyDescent="0.45">
+      <c r="B576" s="6" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J576" s="6"/>
     </row>
     <row r="577" spans="2:2" ht="33" x14ac:dyDescent="0.45">
-      <c r="B577" s="5" t="s">
-        <v>1630</v>
+      <c r="B577" s="6" t="s">
+        <v>2305</v>
       </c>
     </row>
     <row r="578" spans="2:2" ht="33" x14ac:dyDescent="0.45">
@@ -44929,8 +44943,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:E447"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46640,7 +46654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -46988,8 +47002,8 @@
       <c r="A45">
         <v>4</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>1604</v>
+      <c r="B45" s="2" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -46997,15 +47011,15 @@
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1404</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>1531</v>
+      <c r="B47" s="5" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47013,7 +47027,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1552</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47053,7 +47067,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47061,7 +47075,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47069,7 +47083,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47077,23 +47091,23 @@
         <v>4</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>4</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>700</v>
+      <c r="B57" s="2" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>4</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>705</v>
+      <c r="B58" s="2" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47101,7 +47115,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>885</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47109,7 +47123,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>933</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47117,7 +47131,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>942</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47125,7 +47139,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>952</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47133,7 +47147,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>975</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47141,7 +47155,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1083</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47149,7 +47163,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1105</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47157,31 +47171,31 @@
         <v>4</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1115</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>1263</v>
+      <c r="B67" s="5" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>1735</v>
+      <c r="B68" s="5" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>1791</v>
+      <c r="B69" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47189,7 +47203,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1792</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47197,7 +47211,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1835</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47205,7 +47219,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1887</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47213,7 +47227,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47221,7 +47235,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1899</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47229,23 +47243,23 @@
         <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1903</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>4</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>1907</v>
+      <c r="B76" s="5" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>4</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>1908</v>
+      <c r="B77" s="5" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47253,7 +47267,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1988</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47261,55 +47275,55 @@
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2021</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>4</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>1347</v>
+      <c r="B80" s="2" t="s">
+        <v>1887</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>4</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>1663</v>
+      <c r="B81" s="2" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>4</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>1307</v>
+      <c r="B82" s="2" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>4</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>1686</v>
+      <c r="B83" s="2" t="s">
+        <v>1907</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>4</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>1687</v>
+      <c r="B84" s="2" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>4</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>1411</v>
+      <c r="B85" s="5" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47317,15 +47331,15 @@
         <v>4</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>4</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>1504</v>
+      <c r="B87" s="3" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47333,7 +47347,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1514</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47341,7 +47355,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1548</v>
+        <v>975</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47357,7 +47371,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>733</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="33" x14ac:dyDescent="0.45">
@@ -47378,8 +47392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47603,8 +47617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -48001,1131 +48015,1590 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C153"/>
+  <dimension ref="B1:E153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>2083</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B32" s="5" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C36" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C37" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="C38" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>521</v>
       </c>
       <c r="C39" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E39" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
         <v>2082</v>
       </c>
       <c r="C40" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C42" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C43" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
         <v>2130</v>
       </c>
       <c r="C44" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
         <v>2099</v>
       </c>
       <c r="C45" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E45" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C46" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E46" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C47" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
         <v>2132</v>
       </c>
       <c r="C48" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E49" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C50" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E50" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E52" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E53" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B54" s="2" t="s">
         <v>2301</v>
       </c>
       <c r="C54" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E54" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E55" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C56" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E56" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E57" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E58" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B59" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C59" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E59" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C60" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E60" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C61" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E61" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E62" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E63" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C64" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E64" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C65" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E65" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B66" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C66" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E66" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B67" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C67" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E67" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B68" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E68" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B69" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C69" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E69" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B70" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C70" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E70" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B71" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C71" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E71" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B72" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C72" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E72" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B73" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C73" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E73" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B74" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C74" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E74" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B75" s="3" t="s">
         <v>585</v>
       </c>
       <c r="C75" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E75" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B76" s="3" t="s">
         <v>654</v>
       </c>
       <c r="C76" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E76" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B77" s="3" t="s">
         <v>660</v>
       </c>
       <c r="C77" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E77" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B78" s="3" t="s">
         <v>664</v>
       </c>
       <c r="C78" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E78" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B79" s="3" t="s">
         <v>693</v>
       </c>
       <c r="C79" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E79" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B80" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C80" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E80" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B81" s="3" t="s">
         <v>702</v>
       </c>
       <c r="C81" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E81" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B82" s="3" t="s">
         <v>703</v>
       </c>
       <c r="C82" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E82" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B83" s="3" t="s">
         <v>746</v>
       </c>
       <c r="C83" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E83" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B84" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C84" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E84" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B85" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C85" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E85" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B86" s="2" t="s">
         <v>866</v>
       </c>
       <c r="C86" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E86" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B87" s="2" t="s">
         <v>938</v>
       </c>
       <c r="C87" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E87" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B88" s="2" t="s">
         <v>940</v>
       </c>
       <c r="C88" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E88" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B89" s="2" t="s">
         <v>959</v>
       </c>
       <c r="C89" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E89" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="C90" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E90" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
         <v>1006</v>
       </c>
       <c r="C91" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E91" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B92" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="C92" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E92" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B93" s="2" t="s">
         <v>1193</v>
       </c>
       <c r="C93" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E93" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B94" s="2" t="s">
         <v>1717</v>
       </c>
       <c r="C94" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E94" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B95" s="2" t="s">
         <v>1767</v>
       </c>
       <c r="C95" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E95" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B96" s="2" t="s">
         <v>1788</v>
       </c>
       <c r="C96" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E96" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
         <v>1906</v>
       </c>
       <c r="C97" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E97" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B98" s="2" t="s">
         <v>2064</v>
       </c>
       <c r="C98" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E98" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B99" s="5" t="s">
         <v>1330</v>
       </c>
       <c r="C99" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E99" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B100" s="2" t="s">
         <v>1460</v>
       </c>
       <c r="C100" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="E100" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E101" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B102" s="2" t="s">
         <v>2115</v>
       </c>
       <c r="C102" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E102" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B103" s="2" t="s">
         <v>2093</v>
       </c>
       <c r="C103" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C104" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E104" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B105" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C105" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E105" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B106" s="2" t="s">
         <v>2123</v>
       </c>
       <c r="C106" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E106" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B107" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C107" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E107" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B108" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C108" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E108" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C109" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E109" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C110" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E110" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C111" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E111" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B112" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C112" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E112" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B113" s="2" t="s">
         <v>2114</v>
       </c>
       <c r="C113" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E113" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B114" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C114" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B115" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C115" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E115" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B116" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C116" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B117" s="3" t="s">
         <v>474</v>
       </c>
       <c r="C117" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E117" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B118" s="2" t="s">
         <v>835</v>
       </c>
       <c r="C118" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E118" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B119" s="2" t="s">
         <v>941</v>
       </c>
       <c r="C119" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E119" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C120" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E120" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B121" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="C121" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E121" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B122" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C122" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E122" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B123" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="C123" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E123" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B124" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C124" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E124" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B125" s="2" t="s">
         <v>419</v>
       </c>
       <c r="C125" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E125" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B126" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C126" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E126" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B127" s="2" t="s">
         <v>2097</v>
       </c>
       <c r="C127" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E127" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B128" s="2" t="s">
         <v>2138</v>
       </c>
       <c r="C128" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E128" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B129" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E129" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B130" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C130" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E130" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B131" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C131" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E131" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B132" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C132" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E132" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B133" s="5" t="s">
         <v>1578</v>
       </c>
       <c r="C133" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E133" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B134" s="2" t="s">
         <v>870</v>
       </c>
       <c r="C134" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E134" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B135" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C135" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E135" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B136" s="2" t="s">
         <v>1225</v>
       </c>
       <c r="C136" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E136" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B137" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C137" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E137" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B138" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C138" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E138" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B139" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C139" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E139" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B140" s="2" t="s">
         <v>2152</v>
       </c>
       <c r="C140" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E140" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B141" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C141" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E141" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B142" s="2" t="s">
         <v>2084</v>
       </c>
       <c r="C142" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E142" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B143" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C143" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E143" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B144" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C144" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E144" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C145" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E145" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B146" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C146" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E146" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B147" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C147" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E147" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B148" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C148" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E148" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B149" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C149" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E149" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B150" s="3" t="s">
         <v>631</v>
       </c>
       <c r="C150" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E150" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B151" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C151" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E151" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B152" s="5" t="s">
         <v>1623</v>
       </c>
       <c r="C152" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="E152" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="33" x14ac:dyDescent="0.45">
       <c r="B153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C153" t="s">
         <v>2303</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2306</v>
       </c>
     </row>
   </sheetData>

--- a/自定义字帖/结构分类.xlsx
+++ b/自定义字帖/结构分类.xlsx
@@ -30760,8 +30760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C313"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33230,8 +33230,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D1230"/>
   <sheetViews>
-    <sheetView topLeftCell="A952" workbookViewId="0">
-      <selection activeCell="B946" sqref="B946:C950"/>
+    <sheetView topLeftCell="A923" workbookViewId="0">
+      <selection activeCell="B751" sqref="B751:B931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -50551,15 +50551,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F153"/>
+  <dimension ref="B1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>2126</v>
       </c>
@@ -50569,8 +50569,14 @@
       <c r="F1" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="G1">
+        <v>377</v>
+      </c>
+      <c r="H1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>2083</v>
       </c>
@@ -50578,7 +50584,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>607</v>
       </c>
@@ -50586,7 +50592,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>221</v>
       </c>
@@ -50594,7 +50600,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -50602,7 +50608,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>485</v>
       </c>
@@ -50610,7 +50616,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>465</v>
       </c>
@@ -50618,7 +50624,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>2100</v>
       </c>
@@ -50626,7 +50632,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>104</v>
       </c>
@@ -50634,7 +50640,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -50642,7 +50648,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -50650,7 +50656,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -50658,7 +50664,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -50666,7 +50672,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>701</v>
       </c>
@@ -50674,7 +50680,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
@@ -50682,7 +50688,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="33" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
@@ -52150,8 +52156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="E335" sqref="E335"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452:B649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/自定义字帖/结构分类.xlsx
+++ b/自定义字帖/结构分类.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10129" uniqueCount="2313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10127" uniqueCount="2313">
   <si>
     <t>一</t>
   </si>
@@ -30760,7 +30760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C313"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
+    <sheetView topLeftCell="A309" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B172"/>
     </sheetView>
   </sheetViews>
@@ -33230,8 +33230,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D1230"/>
   <sheetViews>
-    <sheetView topLeftCell="A923" workbookViewId="0">
-      <selection activeCell="B751" sqref="B751:B931"/>
+    <sheetView topLeftCell="A819" workbookViewId="0">
+      <selection activeCell="C822" sqref="C822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38663,26 +38663,26 @@
         <v>1</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="A666">
-        <v>1</v>
-      </c>
       <c r="B666" s="2" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="A667">
+        <v>1</v>
+      </c>
       <c r="B667" s="2" t="s">
-        <v>1834</v>
+        <v>1894</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>2195</v>
@@ -38693,7 +38693,7 @@
         <v>1</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1894</v>
+        <v>1910</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>2195</v>
@@ -38704,7 +38704,7 @@
         <v>1</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1910</v>
+        <v>1963</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>2195</v>
@@ -38715,7 +38715,7 @@
         <v>1</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>2195</v>
@@ -38726,7 +38726,7 @@
         <v>1</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1964</v>
+        <v>2170</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>2195</v>
@@ -38737,7 +38737,7 @@
         <v>1</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>2170</v>
+        <v>1994</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>2195</v>
@@ -38748,7 +38748,7 @@
         <v>1</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1994</v>
+        <v>2052</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>2195</v>
@@ -38758,8 +38758,8 @@
       <c r="A674">
         <v>1</v>
       </c>
-      <c r="B674" s="2" t="s">
-        <v>2052</v>
+      <c r="B674" s="5" t="s">
+        <v>1598</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>2195</v>
@@ -38769,8 +38769,8 @@
       <c r="A675">
         <v>1</v>
       </c>
-      <c r="B675" s="5" t="s">
-        <v>1598</v>
+      <c r="B675" s="2" t="s">
+        <v>1555</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>2195</v>
@@ -38781,7 +38781,7 @@
         <v>1</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1555</v>
+        <v>1566</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>2195</v>
@@ -38792,7 +38792,7 @@
         <v>1</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>2195</v>
@@ -38800,13 +38800,13 @@
     </row>
     <row r="678" spans="1:3" ht="33" x14ac:dyDescent="0.45">
       <c r="A678">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1568</v>
+        <v>849</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="33" x14ac:dyDescent="0.45">
@@ -38814,7 +38814,7 @@
         <v>2</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>849</v>
+        <v>570</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>2198</v>
@@ -38825,7 +38825,7 @@
         <v>2</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>570</v>
+        <v>109</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>2198</v>
@@ -38836,7 +38836,7 @@
         <v>2</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>2198</v>
@@ -38847,7 +38847,7 @@
         <v>2</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>2198</v>
@@ -38858,7 +38858,7 @@
         <v>2</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>2198</v>
@@ -38869,7 +38869,7 @@
         <v>2</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>2198</v>
@@ -38880,7 +38880,7 @@
         <v>2</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>2198</v>
@@ -38891,7 +38891,7 @@
         <v>2</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>2198</v>
@@ -38902,7 +38902,7 @@
         <v>2</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>2198</v>
@@ -38913,7 +38913,7 @@
         <v>2</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>2198</v>
@@ -38923,8 +38923,8 @@
       <c r="A689">
         <v>2</v>
       </c>
-      <c r="B689" s="2" t="s">
-        <v>114</v>
+      <c r="B689" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>2198</v>
@@ -38935,7 +38935,7 @@
         <v>2</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>769</v>
+        <v>806</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>2198</v>
@@ -38945,8 +38945,8 @@
       <c r="A691">
         <v>2</v>
       </c>
-      <c r="B691" s="3" t="s">
-        <v>806</v>
+      <c r="B691" s="2" t="s">
+        <v>1075</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>2198</v>
@@ -38957,7 +38957,7 @@
         <v>2</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1075</v>
+        <v>1119</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>2198</v>
@@ -38968,7 +38968,7 @@
         <v>2</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1119</v>
+        <v>1156</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>2198</v>
@@ -38979,7 +38979,7 @@
         <v>2</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>2198</v>
@@ -38990,7 +38990,7 @@
         <v>2</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1157</v>
+        <v>1357</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>2198</v>
@@ -39001,7 +39001,7 @@
         <v>2</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>2198</v>
@@ -39012,7 +39012,7 @@
         <v>2</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1356</v>
+        <v>1851</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>2198</v>
@@ -39023,7 +39023,7 @@
         <v>2</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1851</v>
+        <v>1886</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>2198</v>
@@ -39033,8 +39033,8 @@
       <c r="A699">
         <v>2</v>
       </c>
-      <c r="B699" s="2" t="s">
-        <v>1886</v>
+      <c r="B699" s="5" t="s">
+        <v>1586</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>2198</v>
@@ -39045,7 +39045,7 @@
         <v>2</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>2198</v>
@@ -39056,7 +39056,7 @@
         <v>2</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1587</v>
+        <v>1638</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>2198</v>
@@ -39067,7 +39067,7 @@
         <v>2</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1638</v>
+        <v>1685</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>2198</v>
@@ -39077,8 +39077,8 @@
       <c r="A703">
         <v>2</v>
       </c>
-      <c r="B703" s="5" t="s">
-        <v>1685</v>
+      <c r="B703" s="2" t="s">
+        <v>1454</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>2198</v>
@@ -39089,138 +39089,135 @@
         <v>2</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="A705">
-        <v>2</v>
-      </c>
+    <row r="705" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B705" s="2" t="s">
-        <v>1455</v>
+        <v>202</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="706" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B706" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="707" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B707" s="2" t="s">
-        <v>203</v>
+        <v>1405</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="708" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B708" s="2" t="s">
-        <v>1405</v>
+        <v>1501</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="709" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B709" s="2" t="s">
-        <v>1501</v>
+        <v>2162</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="710" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B710" s="2" t="s">
-        <v>2162</v>
+        <v>70</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B711" s="2" t="s">
-        <v>70</v>
+    <row r="711" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B711" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="712" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B712" s="3" t="s">
-        <v>677</v>
+        <v>790</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B713" s="3" t="s">
-        <v>790</v>
+    <row r="713" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B713" s="2" t="s">
+        <v>996</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="714" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B714" s="2" t="s">
-        <v>996</v>
+        <v>1064</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="715" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B715" s="2" t="s">
-        <v>1064</v>
+        <v>1412</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="716" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B716" s="2" t="s">
-        <v>1412</v>
+        <v>1547</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="717" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B717" s="2" t="s">
-        <v>1547</v>
+        <v>303</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="718" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B718" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="719" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B719" s="2" t="s">
-        <v>304</v>
+        <v>883</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="720" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B720" s="2" t="s">
-        <v>883</v>
+        <v>929</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>2303</v>
@@ -39228,7 +39225,7 @@
     </row>
     <row r="721" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B721" s="2" t="s">
-        <v>929</v>
+        <v>1373</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>2303</v>
@@ -39236,7 +39233,7 @@
     </row>
     <row r="722" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B722" s="2" t="s">
-        <v>1373</v>
+        <v>1798</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>2303</v>
@@ -39244,15 +39241,15 @@
     </row>
     <row r="723" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B723" s="2" t="s">
-        <v>1798</v>
+        <v>1970</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="724" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B724" s="2" t="s">
-        <v>1970</v>
+      <c r="B724" s="5" t="s">
+        <v>1287</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>2303</v>
@@ -39260,15 +39257,15 @@
     </row>
     <row r="725" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B725" s="5" t="s">
-        <v>1287</v>
+        <v>1305</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="726" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B726" s="5" t="s">
-        <v>1305</v>
+      <c r="B726" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>2303</v>
@@ -39276,7 +39273,7 @@
     </row>
     <row r="727" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B727" s="3" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>2303</v>
@@ -39284,7 +39281,7 @@
     </row>
     <row r="728" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B728" s="3" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>2303</v>
@@ -39292,15 +39289,15 @@
     </row>
     <row r="729" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B729" s="3" t="s">
-        <v>561</v>
+        <v>805</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="730" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B730" s="3" t="s">
-        <v>805</v>
+      <c r="B730" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>2303</v>
@@ -39308,7 +39305,7 @@
     </row>
     <row r="731" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B731" s="2" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>2303</v>
@@ -39316,7 +39313,7 @@
     </row>
     <row r="732" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B732" s="2" t="s">
-        <v>884</v>
+        <v>984</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>2303</v>
@@ -39324,7 +39321,7 @@
     </row>
     <row r="733" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B733" s="2" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>2303</v>
@@ -39332,15 +39329,15 @@
     </row>
     <row r="734" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B734" s="2" t="s">
-        <v>989</v>
+        <v>1866</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="735" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B735" s="2" t="s">
-        <v>1866</v>
+      <c r="B735" s="5" t="s">
+        <v>1639</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>2303</v>
@@ -39348,15 +39345,15 @@
     </row>
     <row r="736" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B736" s="5" t="s">
-        <v>1639</v>
+        <v>1669</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="737" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B737" s="5" t="s">
-        <v>1669</v>
+      <c r="B737" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>2303</v>
@@ -39364,7 +39361,7 @@
     </row>
     <row r="738" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B738" s="2" t="s">
-        <v>931</v>
+        <v>976</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>2303</v>
@@ -39372,23 +39369,23 @@
     </row>
     <row r="739" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B739" s="2" t="s">
-        <v>976</v>
+        <v>1201</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="740" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B740" s="2" t="s">
-        <v>1201</v>
+      <c r="B740" s="5" t="s">
+        <v>1366</v>
       </c>
       <c r="C740" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="741" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B741" s="5" t="s">
-        <v>1366</v>
+      <c r="B741" s="2" t="s">
+        <v>1526</v>
       </c>
       <c r="C741" s="2" t="s">
         <v>2303</v>
@@ -39396,79 +39393,79 @@
     </row>
     <row r="742" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B742" s="2" t="s">
-        <v>1526</v>
+        <v>69</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="743" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B743" s="2" t="s">
-        <v>69</v>
+      <c r="B743" s="3" t="s">
+        <v>764</v>
       </c>
       <c r="C743" s="2" t="s">
         <v>2304</v>
       </c>
     </row>
     <row r="744" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B744" s="3" t="s">
-        <v>764</v>
+      <c r="B744" s="5" t="s">
+        <v>1649</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>2304</v>
       </c>
     </row>
     <row r="745" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B745" s="5" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C745" s="2" t="s">
-        <v>2304</v>
+      <c r="B745" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>2233</v>
       </c>
     </row>
     <row r="746" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B746" s="3" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C746" s="3" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="747" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B747" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C747" s="3" t="s">
+      <c r="B747" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C747" s="2" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="748" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B748" s="2" t="s">
-        <v>1773</v>
+        <v>1872</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="749" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B749" s="2" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C749" s="2" t="s">
+      <c r="B749" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C749" s="5" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="750" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B750" s="5" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C750" s="5" t="s">
-        <v>2233</v>
+      <c r="B750" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>2207</v>
       </c>
     </row>
     <row r="751" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B751" s="2" t="s">
-        <v>2120</v>
+        <v>374</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>2207</v>
@@ -39476,7 +39473,7 @@
     </row>
     <row r="752" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B752" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>2207</v>
@@ -39484,7 +39481,7 @@
     </row>
     <row r="753" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B753" s="2" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>2207</v>
@@ -39492,23 +39489,23 @@
     </row>
     <row r="754" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B754" s="2" t="s">
-        <v>414</v>
+        <v>2166</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="755" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B755" s="2" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C755" s="2" t="s">
+      <c r="B755" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C755" s="3" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="756" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B756" s="3" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C756" s="3" t="s">
         <v>2207</v>
@@ -39516,7 +39513,7 @@
     </row>
     <row r="757" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B757" s="3" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C757" s="3" t="s">
         <v>2207</v>
@@ -39524,7 +39521,7 @@
     </row>
     <row r="758" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B758" s="3" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="C758" s="3" t="s">
         <v>2207</v>
@@ -39532,7 +39529,7 @@
     </row>
     <row r="759" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B759" s="3" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="C759" s="3" t="s">
         <v>2207</v>
@@ -39540,23 +39537,23 @@
     </row>
     <row r="760" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B760" s="3" t="s">
-        <v>612</v>
+        <v>728</v>
       </c>
       <c r="C760" s="3" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="761" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B761" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C761" s="3" t="s">
+      <c r="B761" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C761" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="762" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B762" s="2" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>2207</v>
@@ -39564,7 +39561,7 @@
     </row>
     <row r="763" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B763" s="2" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>2207</v>
@@ -39572,7 +39569,7 @@
     </row>
     <row r="764" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B764" s="2" t="s">
-        <v>911</v>
+        <v>1062</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>2207</v>
@@ -39580,7 +39577,7 @@
     </row>
     <row r="765" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B765" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>2207</v>
@@ -39588,7 +39585,7 @@
     </row>
     <row r="766" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B766" s="2" t="s">
-        <v>1065</v>
+        <v>1233</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>2207</v>
@@ -39596,7 +39593,7 @@
     </row>
     <row r="767" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B767" s="2" t="s">
-        <v>1233</v>
+        <v>1737</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>2207</v>
@@ -39604,7 +39601,7 @@
     </row>
     <row r="768" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B768" s="2" t="s">
-        <v>1737</v>
+        <v>1934</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>2207</v>
@@ -39612,7 +39609,7 @@
     </row>
     <row r="769" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B769" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>2207</v>
@@ -39620,7 +39617,7 @@
     </row>
     <row r="770" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B770" s="2" t="s">
-        <v>1935</v>
+        <v>2011</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>2207</v>
@@ -39628,7 +39625,7 @@
     </row>
     <row r="771" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B771" s="2" t="s">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>2207</v>
@@ -39636,7 +39633,7 @@
     </row>
     <row r="772" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B772" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>2207</v>
@@ -39644,23 +39641,23 @@
     </row>
     <row r="773" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B773" s="2" t="s">
-        <v>2018</v>
+        <v>2043</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="774" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B774" s="2" t="s">
-        <v>2043</v>
-      </c>
-      <c r="C774" s="2" t="s">
+      <c r="B774" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C774" s="5" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="775" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B775" s="5" t="s">
-        <v>1339</v>
+        <v>1670</v>
       </c>
       <c r="C775" s="5" t="s">
         <v>2207</v>
@@ -39668,7 +39665,7 @@
     </row>
     <row r="776" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B776" s="5" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C776" s="5" t="s">
         <v>2207</v>
@@ -39676,23 +39673,23 @@
     </row>
     <row r="777" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B777" s="5" t="s">
-        <v>1671</v>
+        <v>1682</v>
       </c>
       <c r="C777" s="5" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="778" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B778" s="5" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C778" s="5" t="s">
+      <c r="B778" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C778" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="779" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B779" s="2" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>2207</v>
@@ -39700,7 +39697,7 @@
     </row>
     <row r="780" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B780" s="2" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C780" s="2" t="s">
         <v>2207</v>
@@ -39708,7 +39705,7 @@
     </row>
     <row r="781" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B781" s="2" t="s">
-        <v>1443</v>
+        <v>1470</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>2207</v>
@@ -39716,7 +39713,7 @@
     </row>
     <row r="782" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B782" s="2" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>2207</v>
@@ -39724,7 +39721,7 @@
     </row>
     <row r="783" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B783" s="2" t="s">
-        <v>1477</v>
+        <v>1538</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>2207</v>
@@ -39732,15 +39729,15 @@
     </row>
     <row r="784" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B784" s="2" t="s">
-        <v>1538</v>
+        <v>2122</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>2207</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="785" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B785" s="2" t="s">
-        <v>2122</v>
+        <v>167</v>
       </c>
       <c r="C785" s="2" t="s">
         <v>2184</v>
@@ -39748,7 +39745,7 @@
     </row>
     <row r="786" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B786" s="2" t="s">
-        <v>167</v>
+        <v>590</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>2184</v>
@@ -39756,7 +39753,7 @@
     </row>
     <row r="787" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B787" s="2" t="s">
-        <v>590</v>
+        <v>2121</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>2184</v>
@@ -39764,7 +39761,7 @@
     </row>
     <row r="788" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B788" s="2" t="s">
-        <v>2121</v>
+        <v>168</v>
       </c>
       <c r="C788" s="2" t="s">
         <v>2184</v>
@@ -39772,7 +39769,7 @@
     </row>
     <row r="789" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B789" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C789" s="2" t="s">
         <v>2184</v>
@@ -39780,7 +39777,7 @@
     </row>
     <row r="790" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B790" s="2" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>2184</v>
@@ -39788,7 +39785,7 @@
     </row>
     <row r="791" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B791" s="2" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>2184</v>
@@ -39796,7 +39793,7 @@
     </row>
     <row r="792" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B792" s="2" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>2184</v>
@@ -39804,7 +39801,7 @@
     </row>
     <row r="793" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B793" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>2184</v>
@@ -39812,7 +39809,7 @@
     </row>
     <row r="794" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B794" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>2184</v>
@@ -39820,15 +39817,15 @@
     </row>
     <row r="795" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B795" s="2" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="796" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B796" s="2" t="s">
-        <v>425</v>
+      <c r="B796" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="C796" s="2" t="s">
         <v>2184</v>
@@ -39836,7 +39833,7 @@
     </row>
     <row r="797" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B797" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>2184</v>
@@ -39844,7 +39841,7 @@
     </row>
     <row r="798" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B798" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>2184</v>
@@ -39852,7 +39849,7 @@
     </row>
     <row r="799" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B799" s="3" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>2184</v>
@@ -39860,23 +39857,23 @@
     </row>
     <row r="800" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B800" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C800" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C800" s="3" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="801" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B801" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C801" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C801" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="802" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B802" s="3" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C802" s="2" t="s">
         <v>2184</v>
@@ -39884,7 +39881,7 @@
     </row>
     <row r="803" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B803" s="3" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>2184</v>
@@ -39892,7 +39889,7 @@
     </row>
     <row r="804" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B804" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C804" s="2" t="s">
         <v>2184</v>
@@ -39900,7 +39897,7 @@
     </row>
     <row r="805" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B805" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>2184</v>
@@ -39908,7 +39905,7 @@
     </row>
     <row r="806" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B806" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>2184</v>
@@ -39916,7 +39913,7 @@
     </row>
     <row r="807" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B807" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>2184</v>
@@ -39924,7 +39921,7 @@
     </row>
     <row r="808" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B808" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>2184</v>
@@ -39932,7 +39929,7 @@
     </row>
     <row r="809" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B809" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>2184</v>
@@ -39940,7 +39937,7 @@
     </row>
     <row r="810" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B810" s="3" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>2184</v>
@@ -39948,7 +39945,7 @@
     </row>
     <row r="811" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B811" s="3" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>2184</v>
@@ -39956,7 +39953,7 @@
     </row>
     <row r="812" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B812" s="3" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>2184</v>
@@ -39964,7 +39961,7 @@
     </row>
     <row r="813" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B813" s="3" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>2184</v>
@@ -39972,7 +39969,7 @@
     </row>
     <row r="814" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B814" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>2184</v>
@@ -39980,7 +39977,7 @@
     </row>
     <row r="815" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B815" s="3" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>2184</v>
@@ -39988,7 +39985,7 @@
     </row>
     <row r="816" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B816" s="3" t="s">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>2184</v>
@@ -39996,7 +39993,7 @@
     </row>
     <row r="817" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B817" s="3" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>2184</v>
@@ -40004,15 +40001,15 @@
     </row>
     <row r="818" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B818" s="3" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="819" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B819" s="3" t="s">
-        <v>809</v>
+      <c r="B819" s="2" t="s">
+        <v>912</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>2184</v>
@@ -40020,7 +40017,7 @@
     </row>
     <row r="820" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B820" s="2" t="s">
-        <v>912</v>
+        <v>948</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>2184</v>
@@ -40028,11 +40025,9 @@
     </row>
     <row r="821" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B821" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="C821" s="2" t="s">
-        <v>2184</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="C821" s="2"/>
     </row>
     <row r="822" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B822" s="2" t="s">
@@ -50573,7 +50568,7 @@
         <v>377</v>
       </c>
       <c r="H1">
-        <v>542</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="33" x14ac:dyDescent="0.45">
@@ -52156,8 +52151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452:B649"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="C575" sqref="C575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -54948,23 +54943,23 @@
     </row>
     <row r="356" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B356" s="2" t="s">
-        <v>1828</v>
+        <v>1964</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="357" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B357" s="2" t="s">
-        <v>1964</v>
+      <c r="B357" s="5" t="s">
+        <v>1598</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="358" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B358" s="5" t="s">
-        <v>1598</v>
+      <c r="B358" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>2195</v>
@@ -54972,7 +54967,7 @@
     </row>
     <row r="359" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B359" s="2" t="s">
-        <v>371</v>
+        <v>832</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>2195</v>
@@ -54980,7 +54975,7 @@
     </row>
     <row r="360" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B360" s="2" t="s">
-        <v>832</v>
+        <v>916</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>2195</v>
@@ -54988,7 +54983,7 @@
     </row>
     <row r="361" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B361" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>2195</v>
@@ -54996,7 +54991,7 @@
     </row>
     <row r="362" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B362" s="2" t="s">
-        <v>917</v>
+        <v>1032</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>2195</v>
@@ -55004,7 +54999,7 @@
     </row>
     <row r="363" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B363" s="2" t="s">
-        <v>1032</v>
+        <v>1829</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>2195</v>
@@ -55012,7 +55007,7 @@
     </row>
     <row r="364" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B364" s="2" t="s">
-        <v>1829</v>
+        <v>1994</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>2195</v>
@@ -55020,7 +55015,7 @@
     </row>
     <row r="365" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B365" s="2" t="s">
-        <v>1994</v>
+        <v>1555</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>2195</v>
@@ -55028,7 +55023,7 @@
     </row>
     <row r="366" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B366" s="2" t="s">
-        <v>1555</v>
+        <v>217</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>2195</v>
@@ -55036,7 +55031,7 @@
     </row>
     <row r="367" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B367" s="2" t="s">
-        <v>217</v>
+        <v>1834</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>2195</v>
@@ -55044,7 +55039,7 @@
     </row>
     <row r="368" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B368" s="2" t="s">
-        <v>1834</v>
+        <v>1910</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>2195</v>
@@ -55052,7 +55047,7 @@
     </row>
     <row r="369" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B369" s="2" t="s">
-        <v>1910</v>
+        <v>2170</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>2195</v>
@@ -55060,7 +55055,7 @@
     </row>
     <row r="370" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B370" s="2" t="s">
-        <v>2170</v>
+        <v>2052</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>2195</v>
@@ -55068,36 +55063,36 @@
     </row>
     <row r="371" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B371" s="2" t="s">
-        <v>2052</v>
+        <v>1568</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="372" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B372" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B373">
-        <v>1</v>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B373" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>2198</v>
       </c>
     </row>
     <row r="374" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B374" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="375" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B375" s="2" t="s">
-        <v>113</v>
+      <c r="B375" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>2198</v>
@@ -55105,15 +55100,15 @@
     </row>
     <row r="376" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B376" s="3" t="s">
-        <v>769</v>
+        <v>806</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="377" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B377" s="3" t="s">
-        <v>806</v>
+      <c r="B377" s="2" t="s">
+        <v>1156</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>2198</v>
@@ -55121,7 +55116,7 @@
     </row>
     <row r="378" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B378" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>2198</v>
@@ -55129,15 +55124,15 @@
     </row>
     <row r="379" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B379" s="2" t="s">
-        <v>1157</v>
+        <v>1356</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="380" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B380" s="2" t="s">
-        <v>1356</v>
+      <c r="B380" s="5" t="s">
+        <v>1586</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>2198</v>
@@ -55145,15 +55140,15 @@
     </row>
     <row r="381" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B381" s="5" t="s">
-        <v>1586</v>
+        <v>1638</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="382" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B382" s="5" t="s">
-        <v>1638</v>
+      <c r="B382" s="2" t="s">
+        <v>1454</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>2198</v>
@@ -55161,7 +55156,7 @@
     </row>
     <row r="383" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B383" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>2198</v>
@@ -55169,7 +55164,7 @@
     </row>
     <row r="384" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B384" s="2" t="s">
-        <v>1455</v>
+        <v>849</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>2198</v>
@@ -55177,7 +55172,7 @@
     </row>
     <row r="385" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B385" s="2" t="s">
-        <v>849</v>
+        <v>570</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>2198</v>
@@ -55185,7 +55180,7 @@
     </row>
     <row r="386" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B386" s="2" t="s">
-        <v>570</v>
+        <v>108</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>2198</v>
@@ -55193,7 +55188,7 @@
     </row>
     <row r="387" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B387" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>2198</v>
@@ -55201,7 +55196,7 @@
     </row>
     <row r="388" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B388" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>2198</v>
@@ -55209,7 +55204,7 @@
     </row>
     <row r="389" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B389" s="2" t="s">
-        <v>114</v>
+        <v>1075</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>2198</v>
@@ -55217,7 +55212,7 @@
     </row>
     <row r="390" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B390" s="2" t="s">
-        <v>1075</v>
+        <v>1119</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>2198</v>
@@ -55225,15 +55220,15 @@
     </row>
     <row r="391" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B391" s="2" t="s">
-        <v>1119</v>
+        <v>1886</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="392" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B392" s="2" t="s">
-        <v>1886</v>
+      <c r="B392" s="5" t="s">
+        <v>1587</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>2198</v>
@@ -55241,15 +55236,15 @@
     </row>
     <row r="393" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B393" s="5" t="s">
-        <v>1587</v>
+        <v>1685</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="394" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B394" s="5" t="s">
-        <v>1685</v>
+      <c r="B394" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>2198</v>
@@ -55257,7 +55252,7 @@
     </row>
     <row r="395" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B395" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>2198</v>
@@ -55265,7 +55260,7 @@
     </row>
     <row r="396" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B396" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>2198</v>
@@ -55273,7 +55268,7 @@
     </row>
     <row r="397" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B397" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>2198</v>
@@ -55281,7 +55276,7 @@
     </row>
     <row r="398" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B398" s="2" t="s">
-        <v>110</v>
+        <v>1357</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>2198</v>
@@ -55289,29 +55284,29 @@
     </row>
     <row r="399" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B399" s="2" t="s">
-        <v>1357</v>
+        <v>1851</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="400" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B400" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>2198</v>
-      </c>
+      <c r="B400" s="2">
+        <v>1</v>
+      </c>
+      <c r="C400" s="2"/>
     </row>
     <row r="401" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B401" s="2">
-        <v>1</v>
-      </c>
-      <c r="C401" s="2"/>
+      <c r="B401" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>2217</v>
+      </c>
     </row>
     <row r="402" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B402" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>2217</v>
@@ -55319,7 +55314,7 @@
     </row>
     <row r="403" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B403" s="2" t="s">
-        <v>203</v>
+        <v>1405</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>2217</v>
@@ -55327,36 +55322,36 @@
     </row>
     <row r="404" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B404" s="2" t="s">
-        <v>1405</v>
+        <v>1501</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="405" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B405" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B406">
-        <v>1</v>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B406" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>2305</v>
       </c>
     </row>
     <row r="407" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B407" s="2" t="s">
-        <v>996</v>
+      <c r="B407" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
     <row r="408" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B408" s="3" t="s">
-        <v>790</v>
+      <c r="B408" s="2" t="s">
+        <v>1064</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>2305</v>
@@ -55364,7 +55359,7 @@
     </row>
     <row r="409" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B409" s="2" t="s">
-        <v>1064</v>
+        <v>2162</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>2305</v>
@@ -55372,7 +55367,7 @@
     </row>
     <row r="410" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B410" s="2" t="s">
-        <v>2162</v>
+        <v>1412</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>2305</v>
@@ -55380,52 +55375,52 @@
     </row>
     <row r="411" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B411" s="2" t="s">
-        <v>1412</v>
+        <v>70</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
     <row r="412" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B412" s="2" t="s">
-        <v>70</v>
+      <c r="B412" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
     <row r="413" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B413" s="3" t="s">
-        <v>677</v>
+      <c r="B413" s="2" t="s">
+        <v>1547</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="414" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B414" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B415">
-        <v>1</v>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B415" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>2222</v>
       </c>
     </row>
     <row r="416" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B416" s="2" t="s">
-        <v>883</v>
+        <v>1373</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>2222</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="417" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B417" s="2" t="s">
-        <v>1373</v>
+        <v>1798</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>2303</v>
@@ -55433,23 +55428,23 @@
     </row>
     <row r="418" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B418" s="2" t="s">
-        <v>1798</v>
+        <v>1970</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="419" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B419" s="2" t="s">
-        <v>1970</v>
+      <c r="B419" s="5" t="s">
+        <v>1305</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="420" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B420" s="5" t="s">
-        <v>1305</v>
+      <c r="B420" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>2303</v>
@@ -55457,15 +55452,15 @@
     </row>
     <row r="421" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B421" s="3" t="s">
-        <v>561</v>
+        <v>805</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="422" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B422" s="3" t="s">
-        <v>805</v>
+      <c r="B422" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>2303</v>
@@ -55473,7 +55468,7 @@
     </row>
     <row r="423" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B423" s="2" t="s">
-        <v>848</v>
+        <v>984</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>2303</v>
@@ -55481,7 +55476,7 @@
     </row>
     <row r="424" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B424" s="2" t="s">
-        <v>984</v>
+        <v>929</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>2303</v>
@@ -55489,15 +55484,15 @@
     </row>
     <row r="425" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B425" s="2" t="s">
-        <v>929</v>
+        <v>303</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>2303</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="426" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B426" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>2222</v>
@@ -55505,23 +55500,23 @@
     </row>
     <row r="427" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B427" s="2" t="s">
-        <v>304</v>
+        <v>1526</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>2222</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="428" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B428" s="2" t="s">
-        <v>1526</v>
+      <c r="B428" s="5" t="s">
+        <v>1366</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="429" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B429" s="5" t="s">
-        <v>1366</v>
+      <c r="B429" s="2" t="s">
+        <v>1201</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>2303</v>
@@ -55529,7 +55524,7 @@
     </row>
     <row r="430" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B430" s="2" t="s">
-        <v>1201</v>
+        <v>976</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>2303</v>
@@ -55537,31 +55532,31 @@
     </row>
     <row r="431" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B431" s="2" t="s">
-        <v>976</v>
+        <v>931</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="432" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B432" s="2" t="s">
-        <v>931</v>
+      <c r="B432" s="5" t="s">
+        <v>1287</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="433" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B433" s="5" t="s">
-        <v>1287</v>
+      <c r="B433" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="434" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B434" s="3" t="s">
-        <v>495</v>
+      <c r="B434" s="2" t="s">
+        <v>884</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>2303</v>
@@ -55569,7 +55564,7 @@
     </row>
     <row r="435" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B435" s="2" t="s">
-        <v>884</v>
+        <v>989</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>2303</v>
@@ -55577,15 +55572,15 @@
     </row>
     <row r="436" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B436" s="2" t="s">
-        <v>989</v>
+        <v>1866</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="437" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B437" s="2" t="s">
-        <v>1866</v>
+      <c r="B437" s="5" t="s">
+        <v>1639</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>2303</v>
@@ -55593,135 +55588,135 @@
     </row>
     <row r="438" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B438" s="5" t="s">
-        <v>1639</v>
+        <v>1669</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="439" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B439" s="5" t="s">
-        <v>1669</v>
+      <c r="B439" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="440" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B440" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B441">
-        <v>1</v>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B441" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>2304</v>
       </c>
     </row>
     <row r="442" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B442" s="2" t="s">
-        <v>69</v>
+      <c r="B442" s="3" t="s">
+        <v>764</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>2304</v>
       </c>
     </row>
     <row r="443" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B443" s="3" t="s">
-        <v>764</v>
+      <c r="B443" s="5" t="s">
+        <v>1649</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>2304</v>
       </c>
     </row>
     <row r="444" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B444" s="5" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>2304</v>
-      </c>
+      <c r="B444" s="5">
+        <v>1</v>
+      </c>
+      <c r="C444" s="2"/>
     </row>
     <row r="445" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B445" s="5">
-        <v>1</v>
-      </c>
-      <c r="C445" s="2"/>
+      <c r="B445" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>2233</v>
+      </c>
     </row>
     <row r="446" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B446" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C446" s="3" t="s">
+      <c r="B446" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="447" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B447" s="2" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C447" s="2" t="s">
+      <c r="B447" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C447" s="5" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="448" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B448" s="5" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C448" s="5" t="s">
+      <c r="B448" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="449" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B449" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C449" s="3" t="s">
+      <c r="B449" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>2233</v>
       </c>
     </row>
-    <row r="450" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B450" s="2" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B451">
-        <v>1</v>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B451" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>2207</v>
       </c>
     </row>
     <row r="452" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B452" s="2" t="s">
-        <v>414</v>
+        <v>2166</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="453" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B453" s="2" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C453" s="2" t="s">
+      <c r="B453" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C453" s="3" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="454" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B454" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C454" s="3" t="s">
+      <c r="B454" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="455" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B455" s="2" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>2207</v>
@@ -55729,7 +55724,7 @@
     </row>
     <row r="456" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B456" s="2" t="s">
-        <v>911</v>
+        <v>1065</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>2207</v>
@@ -55737,7 +55732,7 @@
     </row>
     <row r="457" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B457" s="2" t="s">
-        <v>1065</v>
+        <v>1737</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>2207</v>
@@ -55745,7 +55740,7 @@
     </row>
     <row r="458" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B458" s="2" t="s">
-        <v>1737</v>
+        <v>1934</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>2207</v>
@@ -55753,7 +55748,7 @@
     </row>
     <row r="459" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B459" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>2207</v>
@@ -55761,39 +55756,39 @@
     </row>
     <row r="460" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B460" s="2" t="s">
-        <v>1935</v>
+        <v>2043</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="461" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B461" s="2" t="s">
-        <v>2043</v>
-      </c>
-      <c r="C461" s="2" t="s">
+      <c r="B461" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C461" s="5" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="462" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B462" s="5" t="s">
-        <v>1339</v>
+        <v>1670</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="463" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B463" s="5" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C463" s="5" t="s">
+      <c r="B463" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="464" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B464" s="2" t="s">
-        <v>1435</v>
+        <v>1538</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>2207</v>
@@ -55801,7 +55796,7 @@
     </row>
     <row r="465" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B465" s="2" t="s">
-        <v>1538</v>
+        <v>893</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>2207</v>
@@ -55809,7 +55804,7 @@
     </row>
     <row r="466" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B466" s="2" t="s">
-        <v>893</v>
+        <v>1062</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>2207</v>
@@ -55817,7 +55812,7 @@
     </row>
     <row r="467" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B467" s="2" t="s">
-        <v>1062</v>
+        <v>1233</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>2207</v>
@@ -55825,31 +55820,31 @@
     </row>
     <row r="468" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B468" s="2" t="s">
-        <v>1233</v>
+        <v>2017</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="469" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B469" s="2" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C469" s="2" t="s">
+      <c r="B469" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C469" s="5" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="470" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B470" s="5" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C470" s="5" t="s">
+      <c r="B470" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C470" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="471" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B471" s="2" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>2207</v>
@@ -55857,55 +55852,55 @@
     </row>
     <row r="472" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B472" s="2" t="s">
-        <v>1443</v>
+        <v>2120</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="473" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B473" s="2" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C473" s="2" t="s">
+      <c r="B473" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C473" s="3" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="474" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B474" s="3" t="s">
-        <v>476</v>
+        <v>612</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="475" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B475" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C475" s="3" t="s">
+      <c r="B475" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="476" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B476" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="477" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B477" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C477" s="2" t="s">
+      <c r="B477" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C477" s="3" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="478" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B478" s="3" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>2207</v>
@@ -55913,68 +55908,68 @@
     </row>
     <row r="479" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B479" s="3" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="480" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B480" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C480" s="3" t="s">
+      <c r="B480" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="481" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B481" s="2" t="s">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="482" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B482" s="2" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C482" s="2" t="s">
+      <c r="B482" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C482" s="5" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="483" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B483" s="5" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C483" s="5" t="s">
+      <c r="B483" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C483" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="484" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B484" s="2" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>2207</v>
       </c>
     </row>
-    <row r="485" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B485" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B486">
-        <v>1</v>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B486" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>2184</v>
       </c>
     </row>
     <row r="487" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B487" s="2" t="s">
-        <v>2121</v>
+        <v>168</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>2184</v>
@@ -55982,15 +55977,15 @@
     </row>
     <row r="488" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B488" s="2" t="s">
-        <v>168</v>
+        <v>409</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="489" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B489" s="2" t="s">
-        <v>409</v>
+      <c r="B489" s="3" t="s">
+        <v>653</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>2184</v>
@@ -55998,7 +55993,7 @@
     </row>
     <row r="490" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B490" s="3" t="s">
-        <v>653</v>
+        <v>719</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>2184</v>
@@ -56006,7 +56001,7 @@
     </row>
     <row r="491" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B491" s="3" t="s">
-        <v>719</v>
+        <v>776</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>2184</v>
@@ -56014,7 +56009,7 @@
     </row>
     <row r="492" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B492" s="3" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>2184</v>
@@ -56022,15 +56017,15 @@
     </row>
     <row r="493" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B493" s="3" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="494" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B494" s="3" t="s">
-        <v>809</v>
+      <c r="B494" s="2" t="s">
+        <v>912</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>2184</v>
@@ -56038,7 +56033,7 @@
     </row>
     <row r="495" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B495" s="2" t="s">
-        <v>912</v>
+        <v>961</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>2184</v>
@@ -56046,7 +56041,7 @@
     </row>
     <row r="496" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B496" s="2" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>2184</v>
@@ -56054,7 +56049,7 @@
     </row>
     <row r="497" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B497" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>2184</v>
@@ -56062,7 +56057,7 @@
     </row>
     <row r="498" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B498" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>2184</v>
@@ -56070,7 +56065,7 @@
     </row>
     <row r="499" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B499" s="2" t="s">
-        <v>969</v>
+        <v>1052</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>2184</v>
@@ -56078,7 +56073,7 @@
     </row>
     <row r="500" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B500" s="2" t="s">
-        <v>1052</v>
+        <v>1270</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>2184</v>
@@ -56086,7 +56081,7 @@
     </row>
     <row r="501" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B501" s="2" t="s">
-        <v>1270</v>
+        <v>1706</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>2184</v>
@@ -56094,7 +56089,7 @@
     </row>
     <row r="502" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B502" s="2" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>2184</v>
@@ -56102,7 +56097,7 @@
     </row>
     <row r="503" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B503" s="2" t="s">
-        <v>1726</v>
+        <v>1327</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>2184</v>
@@ -56110,7 +56105,7 @@
     </row>
     <row r="504" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B504" s="2" t="s">
-        <v>1327</v>
+        <v>1769</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>2184</v>
@@ -56118,7 +56113,7 @@
     </row>
     <row r="505" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B505" s="2" t="s">
-        <v>1769</v>
+        <v>1838</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>2184</v>
@@ -56126,7 +56121,7 @@
     </row>
     <row r="506" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B506" s="2" t="s">
-        <v>1838</v>
+        <v>1921</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>2184</v>
@@ -56134,7 +56129,7 @@
     </row>
     <row r="507" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B507" s="2" t="s">
-        <v>1921</v>
+        <v>1930</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>2184</v>
@@ -56142,7 +56137,7 @@
     </row>
     <row r="508" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B508" s="2" t="s">
-        <v>1930</v>
+        <v>1936</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>2184</v>
@@ -56150,7 +56145,7 @@
     </row>
     <row r="509" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B509" s="2" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>2184</v>
@@ -56158,7 +56153,7 @@
     </row>
     <row r="510" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B510" s="2" t="s">
-        <v>1941</v>
+        <v>1948</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>2184</v>
@@ -56166,7 +56161,7 @@
     </row>
     <row r="511" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B511" s="2" t="s">
-        <v>1948</v>
+        <v>1959</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>2184</v>
@@ -56174,7 +56169,7 @@
     </row>
     <row r="512" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B512" s="2" t="s">
-        <v>1959</v>
+        <v>1965</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>2184</v>
@@ -56182,15 +56177,15 @@
     </row>
     <row r="513" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B513" s="2" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="514" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B514" s="2" t="s">
-        <v>1967</v>
+      <c r="B514" s="5" t="s">
+        <v>1316</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>2184</v>
@@ -56198,23 +56193,23 @@
     </row>
     <row r="515" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B515" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C515" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C515" s="5" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="516" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B516" s="5" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C516" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C516" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="517" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B517" s="5" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>2184</v>
@@ -56222,7 +56217,7 @@
     </row>
     <row r="518" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B518" s="5" t="s">
-        <v>1635</v>
+        <v>1657</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>2184</v>
@@ -56230,7 +56225,7 @@
     </row>
     <row r="519" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B519" s="5" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>2184</v>
@@ -56238,7 +56233,7 @@
     </row>
     <row r="520" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B520" s="5" t="s">
-        <v>1664</v>
+        <v>1675</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>2184</v>
@@ -56246,15 +56241,15 @@
     </row>
     <row r="521" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B521" s="5" t="s">
-        <v>1675</v>
+        <v>1701</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="522" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B522" s="5" t="s">
-        <v>1701</v>
+      <c r="B522" s="2" t="s">
+        <v>1378</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>2184</v>
@@ -56262,7 +56257,7 @@
     </row>
     <row r="523" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B523" s="2" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>2184</v>
@@ -56270,7 +56265,7 @@
     </row>
     <row r="524" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B524" s="2" t="s">
-        <v>1380</v>
+        <v>1389</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>2184</v>
@@ -56278,7 +56273,7 @@
     </row>
     <row r="525" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B525" s="2" t="s">
-        <v>1389</v>
+        <v>1417</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>2184</v>
@@ -56286,7 +56281,7 @@
     </row>
     <row r="526" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B526" s="2" t="s">
-        <v>1417</v>
+        <v>1478</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>2184</v>
@@ -56294,7 +56289,7 @@
     </row>
     <row r="527" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B527" s="2" t="s">
-        <v>1478</v>
+        <v>1530</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>2184</v>
@@ -56302,7 +56297,7 @@
     </row>
     <row r="528" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B528" s="2" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>2184</v>
@@ -56310,7 +56305,7 @@
     </row>
     <row r="529" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B529" s="2" t="s">
-        <v>1536</v>
+        <v>1565</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>2184</v>
@@ -56318,7 +56313,7 @@
     </row>
     <row r="530" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B530" s="2" t="s">
-        <v>1565</v>
+        <v>2122</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>2184</v>
@@ -56326,7 +56321,7 @@
     </row>
     <row r="531" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B531" s="2" t="s">
-        <v>2122</v>
+        <v>590</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>2184</v>
@@ -56334,7 +56329,7 @@
     </row>
     <row r="532" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B532" s="2" t="s">
-        <v>590</v>
+        <v>169</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>2184</v>
@@ -56342,15 +56337,15 @@
     </row>
     <row r="533" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B533" s="2" t="s">
-        <v>169</v>
+        <v>425</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="534" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B534" s="2" t="s">
-        <v>425</v>
+      <c r="B534" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>2184</v>
@@ -56358,7 +56353,7 @@
     </row>
     <row r="535" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B535" s="3" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>2184</v>
@@ -56366,7 +56361,7 @@
     </row>
     <row r="536" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B536" s="3" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>2184</v>
@@ -56374,7 +56369,7 @@
     </row>
     <row r="537" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B537" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>2184</v>
@@ -56382,7 +56377,7 @@
     </row>
     <row r="538" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B538" s="3" t="s">
-        <v>577</v>
+        <v>681</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>2184</v>
@@ -56390,7 +56385,7 @@
     </row>
     <row r="539" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B539" s="3" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>2184</v>
@@ -56398,15 +56393,15 @@
     </row>
     <row r="540" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B540" s="3" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="541" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B541" s="3" t="s">
-        <v>720</v>
+      <c r="B541" s="2" t="s">
+        <v>1004</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>2184</v>
@@ -56414,7 +56409,7 @@
     </row>
     <row r="542" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B542" s="2" t="s">
-        <v>1004</v>
+        <v>1034</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>2184</v>
@@ -56422,7 +56417,7 @@
     </row>
     <row r="543" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B543" s="2" t="s">
-        <v>1034</v>
+        <v>1077</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>2184</v>
@@ -56430,7 +56425,7 @@
     </row>
     <row r="544" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B544" s="2" t="s">
-        <v>1077</v>
+        <v>1208</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>2184</v>
@@ -56438,7 +56433,7 @@
     </row>
     <row r="545" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B545" s="2" t="s">
-        <v>1208</v>
+        <v>1267</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>2184</v>
@@ -56446,7 +56441,7 @@
     </row>
     <row r="546" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B546" s="2" t="s">
-        <v>1267</v>
+        <v>1723</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>2184</v>
@@ -56454,7 +56449,7 @@
     </row>
     <row r="547" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B547" s="2" t="s">
-        <v>1723</v>
+        <v>1966</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>2184</v>
@@ -56462,7 +56457,7 @@
     </row>
     <row r="548" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B548" s="2" t="s">
-        <v>1966</v>
+        <v>1979</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>2184</v>
@@ -56470,7 +56465,7 @@
     </row>
     <row r="549" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B549" s="2" t="s">
-        <v>1979</v>
+        <v>2045</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>2184</v>
@@ -56478,15 +56473,15 @@
     </row>
     <row r="550" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B550" s="2" t="s">
-        <v>2045</v>
+        <v>2061</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="551" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B551" s="2" t="s">
-        <v>2061</v>
+      <c r="B551" s="5" t="s">
+        <v>1344</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>2184</v>
@@ -56494,7 +56489,7 @@
     </row>
     <row r="552" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B552" s="5" t="s">
-        <v>1344</v>
+        <v>1361</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>2184</v>
@@ -56502,7 +56497,7 @@
     </row>
     <row r="553" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B553" s="5" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>2184</v>
@@ -56510,7 +56505,7 @@
     </row>
     <row r="554" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B554" s="5" t="s">
-        <v>1368</v>
+        <v>1642</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>2184</v>
@@ -56518,15 +56513,15 @@
     </row>
     <row r="555" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B555" s="5" t="s">
-        <v>1642</v>
+        <v>1684</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="556" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B556" s="5" t="s">
-        <v>1684</v>
+      <c r="B556" s="2" t="s">
+        <v>1450</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>2184</v>
@@ -56534,7 +56529,7 @@
     </row>
     <row r="557" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B557" s="2" t="s">
-        <v>1450</v>
+        <v>1473</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>2184</v>
@@ -56542,7 +56537,7 @@
     </row>
     <row r="558" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B558" s="2" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>2184</v>
@@ -56550,7 +56545,7 @@
     </row>
     <row r="559" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B559" s="2" t="s">
-        <v>1479</v>
+        <v>167</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>2184</v>
@@ -56558,7 +56553,7 @@
     </row>
     <row r="560" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B560" s="2" t="s">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>2184</v>
@@ -56566,7 +56561,7 @@
     </row>
     <row r="561" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B561" s="2" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>2184</v>
@@ -56574,7 +56569,7 @@
     </row>
     <row r="562" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B562" s="2" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>2184</v>
@@ -56582,15 +56577,15 @@
     </row>
     <row r="563" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B563" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="564" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B564" s="2" t="s">
-        <v>400</v>
+      <c r="B564" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>2184</v>
@@ -56598,7 +56593,7 @@
     </row>
     <row r="565" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B565" s="3" t="s">
-        <v>458</v>
+        <v>572</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>2184</v>
@@ -56606,7 +56601,7 @@
     </row>
     <row r="566" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B566" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>2184</v>
@@ -56614,7 +56609,7 @@
     </row>
     <row r="567" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B567" s="3" t="s">
-        <v>573</v>
+        <v>464</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>2184</v>
@@ -56622,7 +56617,7 @@
     </row>
     <row r="568" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B568" s="3" t="s">
-        <v>464</v>
+        <v>578</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>2184</v>
@@ -56630,7 +56625,7 @@
     </row>
     <row r="569" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B569" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>2184</v>
@@ -56638,7 +56633,7 @@
     </row>
     <row r="570" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B570" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>2184</v>
@@ -56646,23 +56641,23 @@
     </row>
     <row r="571" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B571" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C571" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C571" s="3" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="572" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B572" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C572" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="573" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B573" s="3" t="s">
-        <v>725</v>
+      <c r="B573" s="2" t="s">
+        <v>948</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>2184</v>
@@ -56670,7 +56665,7 @@
     </row>
     <row r="574" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B574" s="2" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>2184</v>
@@ -56678,11 +56673,9 @@
     </row>
     <row r="575" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B575" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>2184</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="C575" s="2"/>
     </row>
     <row r="576" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B576" s="2" t="s">

--- a/自定义字帖/结构分类.xlsx
+++ b/自定义字帖/结构分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="已完" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12605" uniqueCount="2396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12609" uniqueCount="2396">
   <si>
     <t>一</t>
   </si>
@@ -7468,7 +7468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7482,6 +7482,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -31064,8 +31067,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:C892"/>
   <sheetViews>
-    <sheetView topLeftCell="A891" workbookViewId="0">
-      <selection activeCell="K892" sqref="K892"/>
+    <sheetView topLeftCell="A887" workbookViewId="0">
+      <selection activeCell="F890" sqref="F890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38077,19 +38080,22 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="B1:C314"/>
+  <dimension ref="B1:D316"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B314"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="4" width="9" style="9"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38097,7 +38103,7 @@
       <c r="B2" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38105,7 +38111,7 @@
       <c r="B3" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38113,7 +38119,7 @@
       <c r="B4" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38121,7 +38127,7 @@
       <c r="B5" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38129,7 +38135,7 @@
       <c r="B6" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38137,7 +38143,7 @@
       <c r="B7" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38145,7 +38151,7 @@
       <c r="B8" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38153,7 +38159,7 @@
       <c r="B9" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38161,7 +38167,7 @@
       <c r="B10" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38169,7 +38175,7 @@
       <c r="B11" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38177,7 +38183,7 @@
       <c r="B12" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38185,31 +38191,31 @@
       <c r="B13" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>1656</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>1352</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38217,15 +38223,15 @@
       <c r="B17" s="2" t="s">
         <v>2153</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38233,7 +38239,7 @@
       <c r="B19" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38241,7 +38247,7 @@
       <c r="B20" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38249,7 +38255,7 @@
       <c r="B21" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38257,7 +38263,7 @@
       <c r="B22" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38265,7 +38271,7 @@
       <c r="B23" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38273,7 +38279,7 @@
       <c r="B24" s="2" t="s">
         <v>1961</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38281,15 +38287,15 @@
       <c r="B25" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>1695</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38297,7 +38303,7 @@
       <c r="B27" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38305,7 +38311,7 @@
       <c r="B28" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38313,7 +38319,7 @@
       <c r="B29" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="9" t="s">
         <v>2309</v>
       </c>
     </row>
@@ -38321,23 +38327,23 @@
       <c r="B30" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38345,7 +38351,7 @@
       <c r="B33" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38353,15 +38359,15 @@
       <c r="B34" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="11" t="s">
         <v>1351</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38369,7 +38375,7 @@
       <c r="B36" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38377,7 +38383,7 @@
       <c r="B37" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38385,7 +38391,7 @@
       <c r="B38" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38393,7 +38399,7 @@
       <c r="B39" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38401,7 +38407,7 @@
       <c r="B40" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38409,7 +38415,7 @@
       <c r="B41" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38417,7 +38423,7 @@
       <c r="B42" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38425,7 +38431,7 @@
       <c r="B43" s="2" t="s">
         <v>1991</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38433,7 +38439,7 @@
       <c r="B44" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38441,7 +38447,7 @@
       <c r="B45" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38449,7 +38455,7 @@
       <c r="B46" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38457,7 +38463,7 @@
       <c r="B47" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38465,7 +38471,7 @@
       <c r="B48" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38473,15 +38479,15 @@
       <c r="B49" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38489,7 +38495,7 @@
       <c r="B51" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38497,7 +38503,7 @@
       <c r="B52" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38505,7 +38511,7 @@
       <c r="B53" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38513,15 +38519,15 @@
       <c r="B54" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38529,7 +38535,7 @@
       <c r="B56" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38537,7 +38543,7 @@
       <c r="B57" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38545,7 +38551,7 @@
       <c r="B58" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38553,15 +38559,15 @@
       <c r="B59" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="11" t="s">
         <v>1597</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38569,7 +38575,7 @@
       <c r="B61" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -38577,12 +38583,12 @@
       <c r="B62" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B63">
+      <c r="B63" s="9">
         <v>1</v>
       </c>
     </row>
@@ -38590,7 +38596,7 @@
       <c r="B64" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38598,7 +38604,7 @@
       <c r="B65" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38606,7 +38612,7 @@
       <c r="B66" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38614,7 +38620,7 @@
       <c r="B67" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38622,7 +38628,7 @@
       <c r="B68" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38630,7 +38636,7 @@
       <c r="B69" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38638,7 +38644,7 @@
       <c r="B70" s="2" t="s">
         <v>2075</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38646,15 +38652,15 @@
       <c r="B71" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38662,7 +38668,7 @@
       <c r="B73" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38670,7 +38676,7 @@
       <c r="B74" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38678,7 +38684,7 @@
       <c r="B75" s="2" t="s">
         <v>1799</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38686,7 +38692,7 @@
       <c r="B76" s="2" t="s">
         <v>1944</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38694,7 +38700,7 @@
       <c r="B77" s="2" t="s">
         <v>2031</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38702,15 +38708,15 @@
       <c r="B78" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -38718,1831 +38724,1849 @@
       <c r="B80" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:4" ht="33" x14ac:dyDescent="0.45">
       <c r="B81" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:4" ht="33" x14ac:dyDescent="0.45">
       <c r="B82" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B83" s="3" t="s">
+    <row r="83" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B83" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:4" ht="33" x14ac:dyDescent="0.45">
       <c r="B84" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:4" ht="33" x14ac:dyDescent="0.45">
       <c r="B85" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:4" ht="33" x14ac:dyDescent="0.45">
       <c r="B86" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B87" s="5" t="s">
+    <row r="87" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B87" s="11" t="s">
         <v>1679</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B88" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="2:4" ht="33" x14ac:dyDescent="0.45">
       <c r="B89" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B90" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
+    <row r="92" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+    <row r="93" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B93" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
+    <row r="94" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B94" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
+    <row r="95" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B95" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B94" s="3" t="s">
+    <row r="96" spans="2:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="B96" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C94" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B95" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B96" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="C96" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C97" t="s">
+        <v>622</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B98" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C98" t="s">
+        <v>750</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B99" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C99" t="s">
+        <v>816</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B100" s="2" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C100" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B101" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C101" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B102" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B103" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B104" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="C102" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B103" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B104" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="C104" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B105" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="C105" t="s">
+        <v>673</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B106" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C106" t="s">
+        <v>685</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B107" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C107" t="s">
+        <v>891</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B108" s="2" t="s">
-        <v>2169</v>
-      </c>
-      <c r="C108" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B109" s="2" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C109" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C109" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B110" s="2" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C110" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B111" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B112" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B114" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C112" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B113" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B114" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="C114" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B115" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C115" t="s">
+        <v>678</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B116" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="C116" t="s">
+        <v>768</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B117" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C117" t="s">
+        <v>856</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B118" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" t="s">
+        <v>949</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B119" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B120" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="C120" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B121" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B122" s="2" t="s">
-        <v>1977</v>
-      </c>
-      <c r="C122" t="s">
+        <v>892</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B123" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C123" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B124" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B124" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B125" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C125" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B126" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B127" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B128" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C128" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B127" s="5" t="s">
+    <row r="129" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B129" s="11" t="s">
         <v>1625</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C129" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B129" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B130" s="2" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2260</v>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B130" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B131" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C131" t="s">
+        <v>670</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B132" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C132" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B133" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C133" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B134" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C134" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B135" s="2" t="s">
-        <v>2145</v>
-      </c>
-      <c r="C135" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B136" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C136" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B137" s="2" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C137" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B138" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C138" t="s">
+        <v>913</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B139" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C139" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B140" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C140" t="s">
+        <v>426</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B141" s="2" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C141" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C141" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B142">
-        <v>2</v>
+    <row r="142" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B142" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>2260</v>
       </c>
     </row>
     <row r="143" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B143" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B144" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B145" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C145" s="9" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B144" s="3" t="s">
+    <row r="146" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B146" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C146" s="9" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B146" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B147" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2278</v>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B147" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B148" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C148" t="s">
+        <v>682</v>
+      </c>
+      <c r="C148" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B149" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C149" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C149" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B150" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C150" t="s">
+        <v>896</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B151" s="2" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C151" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B152" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C152" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B153" s="2" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C153" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B154">
-        <v>1</v>
+    <row r="154" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B154" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B155" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B156" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B157" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="C155" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B156" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B157" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="C157" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B158" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C158" t="s">
+        <v>216</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B159" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B159" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B160" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C160" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C160" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B161" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C161" t="s">
+        <v>592</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B162" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C162" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C162" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B163" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C163" t="s">
+        <v>219</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B164" s="2" t="s">
-        <v>1974</v>
-      </c>
-      <c r="C164" t="s">
+        <v>416</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B165" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C165" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B166">
-        <v>1</v>
+    <row r="166" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B166" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>2270</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B167" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B168" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C168" t="s">
-        <v>2273</v>
+        <v>192</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B168" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B169" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C169" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>2273</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B170" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C170" t="s">
+        <v>236</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>2273</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B171" s="2" t="s">
-        <v>1914</v>
-      </c>
-      <c r="C171" t="s">
+        <v>237</v>
+      </c>
+      <c r="C171" s="9" t="s">
         <v>2273</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B172" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C172" t="s">
+        <v>838</v>
+      </c>
+      <c r="C172" s="9" t="s">
         <v>2273</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B173">
-        <v>1</v>
+    <row r="173" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B173" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>2273</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B174" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B175" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B176" s="2" t="s">
         <v>2059</v>
       </c>
-      <c r="C174" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B175" s="2" t="s">
-        <v>2136</v>
-      </c>
-      <c r="C175" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B176" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="C176" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B177" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C177" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C177" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B178" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B178" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B179" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C179" t="s">
+        <v>196</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B180" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C180" t="s">
+        <v>672</v>
+      </c>
+      <c r="C180" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B181" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B181" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C181" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B182" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C182" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C182" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B183" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="C183" t="s">
+        <v>784</v>
+      </c>
+      <c r="C183" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B184" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C184" t="s">
+        <v>828</v>
+      </c>
+      <c r="C184" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B185" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="C185" t="s">
+        <v>895</v>
+      </c>
+      <c r="C185" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B186" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C186" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C186" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B187" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B188" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B189" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="C187" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B188" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="C188" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B189" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="C189" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B190" s="2" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C190" t="s">
+        <v>781</v>
+      </c>
+      <c r="C190" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B191">
-        <v>1</v>
+    <row r="191" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B191" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>2193</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B192" s="2" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C192" t="s">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B193" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C193" t="s">
-        <v>2272</v>
+        <v>2134</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B193" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B194" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C194" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C194" s="9" t="s">
         <v>2272</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B195" s="2">
-        <v>1</v>
+      <c r="B195" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>2272</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B196" s="2" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C196" t="s">
-        <v>2228</v>
+        <v>1068</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>2272</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B197" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C197" t="s">
-        <v>2228</v>
+      <c r="B197" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B198" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B200" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C200" s="9" t="s">
         <v>2228</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B199" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C199" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B200">
-        <v>1</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B201" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C201" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B202" s="2" t="s">
-        <v>2137</v>
-      </c>
-      <c r="C202" t="s">
-        <v>2262</v>
+        <v>494</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B202" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B203" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C203" t="s">
+        <v>220</v>
+      </c>
+      <c r="C203" s="9" t="s">
         <v>2262</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B204" s="2" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C204" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C204" s="9" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B205">
-        <v>1</v>
+    <row r="205" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B205" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>2262</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B206" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C206" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B207" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C207" t="s">
-        <v>2194</v>
+        <v>1889</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B207" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B208" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="C208" t="s">
+        <v>316</v>
+      </c>
+      <c r="C208" s="9" t="s">
         <v>2194</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B209" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="B209" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C209" s="9" t="s">
         <v>2194</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B210" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="C210" t="s">
+        <v>999</v>
+      </c>
+      <c r="C210" s="9" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B211">
-        <v>1</v>
+    <row r="211" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B211" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>2194</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B212" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B213" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B214" s="2" t="s">
         <v>2087</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C214" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B213" s="2" t="s">
+    <row r="215" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B215" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C213" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B214" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C214" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B215" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="C215" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B216" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C216" t="s">
+        <v>588</v>
+      </c>
+      <c r="C216" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="217" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B217" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C217" t="s">
+        <v>658</v>
+      </c>
+      <c r="C217" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="218" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B218" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C218" t="s">
+        <v>423</v>
+      </c>
+      <c r="C218" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="219" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B219" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C219" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="220" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B220" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C220" t="s">
+        <v>86</v>
+      </c>
+      <c r="C220" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="221" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B221" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C221" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C221" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="222" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B222" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C222" t="s">
+        <v>35</v>
+      </c>
+      <c r="C222" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="223" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B223" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C223" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C223" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="224" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B224" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C224" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C224" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="225" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B225" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C225" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C225" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="226" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B226" s="2" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C226" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C226" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B227">
-        <v>1</v>
+    <row r="227" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B227" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>2264</v>
       </c>
     </row>
     <row r="228" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B228" s="2" t="s">
-        <v>2098</v>
-      </c>
-      <c r="C228" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B229" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C229" t="s">
-        <v>2310</v>
+        <v>2091</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B229" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B230" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C230" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="231" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B231" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C231" t="s">
+      <c r="B231" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="232" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B232" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="C232" t="s">
+        <v>394</v>
+      </c>
+      <c r="C232" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="233" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B233" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="C233" t="s">
+        <v>734</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="234" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B234" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C234" t="s">
+        <v>873</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="235" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B235" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C235" t="s">
+        <v>997</v>
+      </c>
+      <c r="C235" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="236" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B236" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C236" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C236" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="237" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B237" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C237" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C237" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="238" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B238" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C238" t="s">
+      <c r="B238" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="239" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B239" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="C239" t="s">
+        <v>332</v>
+      </c>
+      <c r="C239" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="240" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B240" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C240" t="s">
+        <v>684</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B241" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C241" t="s">
+        <v>887</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B242" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C242" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B243" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C243" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="244" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B244" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C244" t="s">
+      <c r="B244" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="245" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B245" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C245" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C245" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="246" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B246" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C246" t="s">
+      <c r="B246" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C246" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B247" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="C247" t="s">
+        <v>183</v>
+      </c>
+      <c r="C247" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="248" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B248" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="B248" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="249" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B249" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C249" t="s">
+        <v>937</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="250" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B250" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C250" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B251" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="B251" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C251" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B252" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C252" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C252" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="253" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B253" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="C253" t="s">
+        <v>730</v>
+      </c>
+      <c r="C253" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="254" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B254" s="5" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="B254" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B255" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B256" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B257" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="C255" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B256" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C256" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B257" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="C257" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="258" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B258" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C258" t="s">
+        <v>175</v>
+      </c>
+      <c r="C258" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="259" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B259" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B260" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B261" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C261" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
-    <row r="260" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B260" s="5" t="s">
+    <row r="262" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B262" s="11" t="s">
         <v>1696</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C262" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B261" s="5" t="s">
+    <row r="263" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B263" s="11" t="s">
         <v>1314</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C263" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B263" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C263" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B264" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C264" t="s">
-        <v>2187</v>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B264" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B265" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C265" t="s">
+        <v>401</v>
+      </c>
+      <c r="C265" s="9" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="266" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B266" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C266" t="s">
+        <v>429</v>
+      </c>
+      <c r="C266" s="9" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="267" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B267" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B268" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B269" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C269" s="9" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="268" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B268" s="3" t="s">
+    <row r="270" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B270" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C270" s="9" t="s">
         <v>2187</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B269" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C269" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B270">
-        <v>1</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B271" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C271" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="272" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B272" s="2" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C272" t="s">
-        <v>2188</v>
+        <v>704</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B272" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B273" s="2" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C273" t="s">
+        <v>181</v>
+      </c>
+      <c r="C273" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="274" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B274" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C274" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C274" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="275" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B275" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C275" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C275" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="276" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B276" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C276" t="s">
+        <v>182</v>
+      </c>
+      <c r="C276" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="277" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B277" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C277" t="s">
+        <v>439</v>
+      </c>
+      <c r="C277" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="278" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B278" s="5" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C278" t="s">
+      <c r="B278" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C278" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="279" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B279" s="2" t="s">
-        <v>2124</v>
-      </c>
-      <c r="C279" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C279" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="280" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B280" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C280" t="s">
+      <c r="B280" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C280" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="281" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B281" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C281" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C281" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="282" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B282" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B283" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B284" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C284" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="283" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B283" s="5" t="s">
+    <row r="285" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B285" s="11" t="s">
         <v>1571</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C285" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="284" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B284" s="5" t="s">
+    <row r="286" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B286" s="11" t="s">
         <v>1360</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C286" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B286" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C286" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B287" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C287" t="s">
-        <v>2269</v>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B287" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B288" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C288" t="s">
+        <v>159</v>
+      </c>
+      <c r="C288" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="289" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B289" s="2" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C289" t="s">
+        <v>469</v>
+      </c>
+      <c r="C289" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="290" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B290" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C290" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C290" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="291" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B291" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C291" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C291" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="292" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B292" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C292" t="s">
+      <c r="B292" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C292" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="293" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B293" s="2" t="s">
-        <v>2019</v>
-      </c>
-      <c r="C293" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C293" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="294" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B294" s="5" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C294" t="s">
+      <c r="B294" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C294" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="295" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B295" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C295" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C295" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="296" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B296" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C296" t="s">
+      <c r="B296" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C296" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="297" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B297" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C297" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C297" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="298" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B298" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B299" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B300" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="C298" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B299" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C299" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B300" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="C300" t="s">
+      <c r="C300" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="301" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B301" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C301" t="s">
+        <v>663</v>
+      </c>
+      <c r="C301" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="302" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B302" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C302" t="s">
+        <v>547</v>
+      </c>
+      <c r="C302" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="303" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B303" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B304" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B305" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C305" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="304" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B304" s="3" t="s">
+    <row r="306" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B306" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C304" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="305" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B305" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C305" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="306" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B306" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C306" t="s">
+      <c r="C306" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="307" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B307" s="2" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C307" t="s">
+        <v>550</v>
+      </c>
+      <c r="C307" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="308" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B308" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C308" t="s">
+        <v>652</v>
+      </c>
+      <c r="C308" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="309" spans="2:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="B309" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C309" t="s">
+      <c r="B309" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C309" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="310" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B310" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C310" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C310" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="311" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B311" s="2" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C311" t="s">
+        <v>473</v>
+      </c>
+      <c r="C311" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="312" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B312" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C312" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C312" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="313" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B313" s="2" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C313" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C313" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="314" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B314" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B315" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="B316" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C316" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
@@ -50358,8 +50382,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D1230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1171" workbookViewId="0">
-      <selection activeCell="B1179" sqref="B1179:B1230"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="G322" sqref="G322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -60440,8 +60464,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J593"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B593" sqref="B1:B593"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -67790,8 +67814,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
